--- a/owlcms/src/test/resources/testData/records/Federations.xlsx
+++ b/owlcms/src/test/resources/testData/records/Federations.xlsx
@@ -5,27 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms4\owlcms\src\test\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms4\owlcms\src\test\resources\testData\records\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5381CA0D-0C6C-4616-A87C-13B69EBDA7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8A8F81-3308-4009-A58F-9C692348D6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="23280" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="488">
   <si>
     <t>parent</t>
   </si>
@@ -39,9 +47,6 @@
     <t>CWF</t>
   </si>
   <si>
-    <t>PanAm</t>
-  </si>
-  <si>
     <t>QC</t>
   </si>
   <si>
@@ -90,9 +95,6 @@
     <t>GBR</t>
   </si>
   <si>
-    <t>Franco</t>
-  </si>
-  <si>
     <t>FRA</t>
   </si>
   <si>
@@ -108,10 +110,1393 @@
     <t>comment</t>
   </si>
   <si>
-    <t>No need to add CAN as member of IWF, indirect relationships are OK</t>
-  </si>
-  <si>
-    <t>Provincial membership implies National membership</t>
+    <t>EWF</t>
+  </si>
+  <si>
+    <t>ALB</t>
+  </si>
+  <si>
+    <t>ARM</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>AZE</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>AFG</t>
+  </si>
+  <si>
+    <t>ALG</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>ANG</t>
+  </si>
+  <si>
+    <t>ANT</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>ARU</t>
+  </si>
+  <si>
+    <t>ASA</t>
+  </si>
+  <si>
+    <t>BAH</t>
+  </si>
+  <si>
+    <t>BAN</t>
+  </si>
+  <si>
+    <t>BAR</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>BEN</t>
+  </si>
+  <si>
+    <t>BER</t>
+  </si>
+  <si>
+    <t>BHU</t>
+  </si>
+  <si>
+    <t>BIH</t>
+  </si>
+  <si>
+    <t>BIZ</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>BOT</t>
+  </si>
+  <si>
+    <t>BRA</t>
+  </si>
+  <si>
+    <t>BRN</t>
+  </si>
+  <si>
+    <t>BRU</t>
+  </si>
+  <si>
+    <t>BUL</t>
+  </si>
+  <si>
+    <t>BUR</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>CAY</t>
+  </si>
+  <si>
+    <t>CGO</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>COK</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>CPV</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>CRO</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>CYP</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>DJI</t>
+  </si>
+  <si>
+    <t>DMA</t>
+  </si>
+  <si>
+    <t>DOM</t>
+  </si>
+  <si>
+    <t>ECU</t>
+  </si>
+  <si>
+    <t>EGY</t>
+  </si>
+  <si>
+    <t>ERI</t>
+  </si>
+  <si>
+    <t>ESA</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>FIJ</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>FSM</t>
+  </si>
+  <si>
+    <t>GAB</t>
+  </si>
+  <si>
+    <t>GAM</t>
+  </si>
+  <si>
+    <t>GBS</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>GEQ</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>GHA</t>
+  </si>
+  <si>
+    <t>GRE</t>
+  </si>
+  <si>
+    <t>GRN</t>
+  </si>
+  <si>
+    <t>GUA</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>GUM</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>HKG</t>
+  </si>
+  <si>
+    <t>HON</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>INA</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>IRI</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>ISL</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>ISV</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>IVB</t>
+  </si>
+  <si>
+    <t>JOR</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>KAZ</t>
+  </si>
+  <si>
+    <t>KEN</t>
+  </si>
+  <si>
+    <t>KGZ</t>
+  </si>
+  <si>
+    <t>KIR</t>
+  </si>
+  <si>
+    <t>KOR</t>
+  </si>
+  <si>
+    <t>KOS</t>
+  </si>
+  <si>
+    <t>KSA</t>
+  </si>
+  <si>
+    <t>KUW</t>
+  </si>
+  <si>
+    <t>LAO</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>LBA</t>
+  </si>
+  <si>
+    <t>LBN</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>LCA</t>
+  </si>
+  <si>
+    <t>LES</t>
+  </si>
+  <si>
+    <t>LIE</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>MAD</t>
+  </si>
+  <si>
+    <t>MAR</t>
+  </si>
+  <si>
+    <t>MAS</t>
+  </si>
+  <si>
+    <t>MAW</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>MDV</t>
+  </si>
+  <si>
+    <t>MGL</t>
+  </si>
+  <si>
+    <t>MHL</t>
+  </si>
+  <si>
+    <t>MKD</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>MLI</t>
+  </si>
+  <si>
+    <t>MLT</t>
+  </si>
+  <si>
+    <t>MNE</t>
+  </si>
+  <si>
+    <t>MON</t>
+  </si>
+  <si>
+    <t>MOZ</t>
+  </si>
+  <si>
+    <t>MRI</t>
+  </si>
+  <si>
+    <t>MTN</t>
+  </si>
+  <si>
+    <t>MYA</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>NCA</t>
+  </si>
+  <si>
+    <t>NED</t>
+  </si>
+  <si>
+    <t>NEP</t>
+  </si>
+  <si>
+    <t>NGR</t>
+  </si>
+  <si>
+    <t>NIG</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>NRU</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>OMA</t>
+  </si>
+  <si>
+    <t>PAK</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>PAR</t>
+  </si>
+  <si>
+    <t>PER</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>PLE</t>
+  </si>
+  <si>
+    <t>PLW</t>
+  </si>
+  <si>
+    <t>PNG</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>PRK</t>
+  </si>
+  <si>
+    <t>PUR</t>
+  </si>
+  <si>
+    <t>QAT</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>SEN</t>
+  </si>
+  <si>
+    <t>SEY</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>SKN</t>
+  </si>
+  <si>
+    <t>SLE</t>
+  </si>
+  <si>
+    <t>SLO</t>
+  </si>
+  <si>
+    <t>SMR</t>
+  </si>
+  <si>
+    <t>SOL</t>
+  </si>
+  <si>
+    <t>SOM</t>
+  </si>
+  <si>
+    <t>SRB</t>
+  </si>
+  <si>
+    <t>SRI</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>SUI</t>
+  </si>
+  <si>
+    <t>SUR</t>
+  </si>
+  <si>
+    <t>SVK</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>TGA</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>TJK</t>
+  </si>
+  <si>
+    <t>TKM</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>TOG</t>
+  </si>
+  <si>
+    <t>TPE</t>
+  </si>
+  <si>
+    <t>TTO</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>TUV</t>
+  </si>
+  <si>
+    <t>UAE</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>UKR</t>
+  </si>
+  <si>
+    <t>URU</t>
+  </si>
+  <si>
+    <t>UZB</t>
+  </si>
+  <si>
+    <t>VAN</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>VIE</t>
+  </si>
+  <si>
+    <t>VIN</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>ZAM</t>
+  </si>
+  <si>
+    <t>ZIM</t>
+  </si>
+  <si>
+    <t>AWF</t>
+  </si>
+  <si>
+    <t>WFA</t>
+  </si>
+  <si>
+    <t>PAWF</t>
+  </si>
+  <si>
+    <t>OWF</t>
+  </si>
+  <si>
+    <t>CUR</t>
+  </si>
+  <si>
+    <t>MAC</t>
+  </si>
+  <si>
+    <t>NCL</t>
+  </si>
+  <si>
+    <t>NIR</t>
+  </si>
+  <si>
+    <t>NIU</t>
+  </si>
+  <si>
+    <t>NMI</t>
+  </si>
+  <si>
+    <t>NRF</t>
+  </si>
+  <si>
+    <t>SCO</t>
+  </si>
+  <si>
+    <t>TAH</t>
+  </si>
+  <si>
+    <t>TCA</t>
+  </si>
+  <si>
+    <t>WAL</t>
+  </si>
+  <si>
+    <t>WLF</t>
+  </si>
+  <si>
+    <t>ZAN</t>
+  </si>
+  <si>
+    <t>recognized by IWF</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>provincial federations are part of the national federation</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Northern Ireland</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Wales</t>
+  </si>
+  <si>
+    <t>Tahiti</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Turk and Caicos</t>
+  </si>
+  <si>
+    <t>Zanzibar</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Québec</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Newfoundland and Labrador</t>
+  </si>
+  <si>
+    <t>Nova Scotia</t>
+  </si>
+  <si>
+    <t>New Bruswick</t>
+  </si>
+  <si>
+    <t>Prince Edward Island</t>
+  </si>
+  <si>
+    <t>Manitoba</t>
+  </si>
+  <si>
+    <t>Saskatchewan</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>Northwest Territories</t>
+  </si>
+  <si>
+    <t>Yukon</t>
+  </si>
+  <si>
+    <t>Nunavik</t>
+  </si>
+  <si>
+    <t>North Ireland</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Commonweatlth Weightlifting Federation</t>
+  </si>
+  <si>
+    <t>Oceania Weightlifting Federation</t>
+  </si>
+  <si>
+    <t>Weightlifting Federation of Africa</t>
+  </si>
+  <si>
+    <t>Asian Weightlifting Federation</t>
+  </si>
+  <si>
+    <t>Pan-American Weightlifting Federation</t>
+  </si>
+  <si>
+    <t>International Weightlifting Federation</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Hong Kong, China</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Palestine</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Chinese Taipei</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Great Britain</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Federated States of Micronesia</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Ivory Coast</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>The Gambia</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>São Tomé and Príncipe</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Wallis-et-Futuna</t>
+  </si>
+  <si>
+    <t>Norther Marianas</t>
+  </si>
+  <si>
+    <t>Norfolk Islands</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Macau, China</t>
   </si>
 </sst>
 </file>
@@ -147,8 +1532,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,19 +1817,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+    <col min="4" max="4" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,213 +1839,3319 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C44" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C45" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C47" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C79" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C83" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C85" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" t="s">
+        <v>234</v>
+      </c>
+      <c r="C89" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C91" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C93" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C94" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" t="s">
+        <v>238</v>
+      </c>
+      <c r="C95" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C97" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C98" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C99" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C100" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C102" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C103" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" t="s">
+        <v>241</v>
+      </c>
+      <c r="C104" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C107" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C108" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C109" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C112" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B113" t="s">
+        <v>233</v>
+      </c>
+      <c r="C113" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B114" t="s">
+        <v>235</v>
+      </c>
+      <c r="C114" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B115" t="s">
+        <v>236</v>
+      </c>
+      <c r="C115" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
+        <v>237</v>
+      </c>
+      <c r="C116" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C117" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C118" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C119" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C120" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C121" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C122" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B123" t="s">
+        <v>239</v>
+      </c>
+      <c r="C123" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C124" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C125" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C126" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B127" t="s">
+        <v>242</v>
+      </c>
+      <c r="C127" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C128" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C129" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C130" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C131" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C132" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C133" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C134" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C135" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C136" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C138" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C139" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C140" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C141" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C142" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B143" t="s">
+        <v>231</v>
+      </c>
+      <c r="C143" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C144" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C145" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C146" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C147" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C148" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C149" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C150" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C151" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C152" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C153" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C154" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C156" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C157" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C158" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C159" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C160" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C161" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C162" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C163" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C164" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B165" t="s">
+        <v>240</v>
+      </c>
+      <c r="C165" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C166" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C167" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C168" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C169" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C170" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C171" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C172" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C173" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C174" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C175" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C176" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C177" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C178" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C179" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C180" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C181" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C182" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C183" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C184" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C185" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C186" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C187" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C188" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C189" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C190" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C191" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C192" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C193" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C194" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C195" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C196" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C197" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C198" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C199" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C200" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C201" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C202" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C203" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C204" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C205" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C206" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C207" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C208" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C209" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C210" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C211" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C212" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C213" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C214" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C215" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C216" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C217" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C218" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C219" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C220" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C221" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C222" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C223" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C224" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B225" t="s">
+        <v>243</v>
+      </c>
+      <c r="C225" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C226" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C227" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C228" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C229" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C230" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C231" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C232" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C233" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C235" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C236" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C237" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C238" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C239" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C240" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C241" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C242" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C243" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C244" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C245" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C246" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C247" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C248" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C249" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C250" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C251" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C252" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C253" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C254" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C255" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C256" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C257" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C258" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C259" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C260" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C261" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C262" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C263" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B264" t="s">
+        <v>238</v>
+      </c>
+      <c r="C264" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C265" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C266" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C267" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C268" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C269" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C270" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C271" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C272" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C273" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C274" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C275" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C276" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C277" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C278" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C279" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>8</v>
+      </c>
+      <c r="B280" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C280" t="s">
+        <v>257</v>
+      </c>
+      <c r="D280" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>8</v>
+      </c>
+      <c r="B281" t="s">
+        <v>5</v>
+      </c>
+      <c r="C281" t="s">
+        <v>258</v>
+      </c>
+      <c r="D281" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>8</v>
+      </c>
+      <c r="B282" t="s">
+        <v>6</v>
+      </c>
+      <c r="C282" t="s">
+        <v>259</v>
+      </c>
+      <c r="D282" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>8</v>
+      </c>
+      <c r="B283" t="s">
+        <v>7</v>
+      </c>
+      <c r="C283" t="s">
+        <v>260</v>
+      </c>
+      <c r="D283" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>8</v>
+      </c>
+      <c r="B284" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C284" t="s">
+        <v>261</v>
+      </c>
+      <c r="D284" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B285" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C285" t="s">
+        <v>262</v>
+      </c>
+      <c r="D285" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>8</v>
+      </c>
+      <c r="B286" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C286" t="s">
+        <v>263</v>
+      </c>
+      <c r="D286" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>8</v>
+      </c>
+      <c r="B287" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C287" t="s">
+        <v>264</v>
+      </c>
+      <c r="D287" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>8</v>
+      </c>
+      <c r="B288" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C288" t="s">
+        <v>265</v>
+      </c>
+      <c r="D288" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>8</v>
+      </c>
+      <c r="B289" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C289" t="s">
+        <v>266</v>
+      </c>
+      <c r="D289" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>8</v>
+      </c>
+      <c r="B290" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C290" t="s">
+        <v>267</v>
+      </c>
+      <c r="D290" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>8</v>
+      </c>
+      <c r="B291" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C291" t="s">
+        <v>268</v>
+      </c>
+      <c r="D291" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>8</v>
+      </c>
+      <c r="B292" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
+      <c r="C292" t="s">
+        <v>269</v>
+      </c>
+      <c r="D292" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>246</v>
+      </c>
+      <c r="B293" t="s">
+        <v>238</v>
+      </c>
+      <c r="C293" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>246</v>
+      </c>
+      <c r="B294" t="s">
+        <v>241</v>
+      </c>
+      <c r="C294" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>246</v>
+      </c>
+      <c r="B295" t="s">
+        <v>234</v>
+      </c>
+      <c r="C295" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>246</v>
+      </c>
+      <c r="B296" t="s">
+        <v>245</v>
+      </c>
+      <c r="C296" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>3</v>
+      </c>
+      <c r="B297" t="s">
+        <v>246</v>
+      </c>
+      <c r="C297" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>25</v>
+      </c>
+      <c r="B298" t="s">
+        <v>246</v>
+      </c>
+      <c r="C298" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
